--- a/api_allocate_modular/outputs/excel/assignments_2025-10-04_00-11.xlsx
+++ b/api_allocate_modular/outputs/excel/assignments_2025-10-04_00-11.xlsx
@@ -555,13 +555,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="24" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="3" max="3"/>
     <col width="21" customWidth="1" min="4" max="4"/>
     <col width="33" customWidth="1" min="5" max="5"/>
-    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
     <col width="25" customWidth="1" min="7" max="7"/>
     <col width="32" customWidth="1" min="10" max="10"/>
-    <col width="24" customWidth="1" min="11" max="11"/>
+    <col width="25" customWidth="1" min="11" max="11"/>
     <col width="20" customWidth="1" min="12" max="12"/>
     <col width="33" customWidth="1" min="13" max="13"/>
     <col width="22" customWidth="1" min="14" max="14"/>
@@ -587,12 +587,12 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>Driver: Olivia Chang</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>Driver: Grace Park</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>Driver: Olivia Chang</t>
         </is>
       </c>
       <c r="G2" s="4" t="inlineStr">
@@ -639,22 +639,22 @@
       </c>
       <c r="C3" s="9" t="inlineStr">
         <is>
-          <t>Jasmine Cheng</t>
+          <t>Lindsey Ro</t>
         </is>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>Isabelle Li</t>
+          <t>Joann Jung</t>
         </is>
       </c>
       <c r="E3" s="10" t="inlineStr">
         <is>
-          <t>Stella Son</t>
+          <t>Kyle Hwang</t>
         </is>
       </c>
       <c r="F3" s="9" t="inlineStr">
         <is>
-          <t>Eugene Seo</t>
+          <t>Chae Moon</t>
         </is>
       </c>
       <c r="G3" s="11" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="M3" s="9" t="inlineStr">
         <is>
-          <t>Jasmine Cheng</t>
+          <t>Ariel Bahn</t>
         </is>
       </c>
       <c r="N3" s="1" t="inlineStr">
@@ -689,7 +689,7 @@
       </c>
       <c r="O3" s="9" t="inlineStr">
         <is>
-          <t>Eugene Seo</t>
+          <t>Zoe Li</t>
         </is>
       </c>
     </row>
@@ -701,27 +701,27 @@
       </c>
       <c r="C4" s="9" t="inlineStr">
         <is>
-          <t>Christina Ko</t>
+          <t>Ariel Bahn</t>
         </is>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>Joel Shim</t>
+          <t>Isabelle Li</t>
         </is>
       </c>
       <c r="E4" s="10" t="inlineStr">
         <is>
-          <t>Aaron duong</t>
+          <t>Sam Ko</t>
         </is>
       </c>
       <c r="F4" s="9" t="inlineStr">
         <is>
-          <t>Gabriel Ni</t>
+          <t>Samuel Wen</t>
         </is>
       </c>
       <c r="G4" s="11" t="inlineStr">
         <is>
-          <t>Grace Sowon Park</t>
+          <t>Jane Yoo</t>
         </is>
       </c>
       <c r="J4" s="13" t="inlineStr">
@@ -731,17 +731,17 @@
       </c>
       <c r="K4" s="11" t="inlineStr">
         <is>
-          <t>Grace Sowon Park</t>
+          <t>Jane Yoo</t>
         </is>
       </c>
       <c r="L4" s="1" t="inlineStr">
         <is>
-          <t>Daniel Kuo</t>
+          <t>Daniel Kim</t>
         </is>
       </c>
       <c r="M4" s="9" t="inlineStr">
         <is>
-          <t>Ariel Bahn</t>
+          <t>Jasmine Cheng</t>
         </is>
       </c>
       <c r="N4" s="11" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="O4" s="10" t="inlineStr">
         <is>
-          <t>Cara Lee</t>
+          <t>Claire Doh</t>
         </is>
       </c>
     </row>
@@ -763,27 +763,27 @@
       </c>
       <c r="C5" s="9" t="inlineStr">
         <is>
-          <t>Samuel Wen</t>
+          <t>Zoe Li</t>
         </is>
       </c>
       <c r="D5" s="10" t="inlineStr">
         <is>
-          <t>Irene Jung</t>
+          <t>Phillip Seo</t>
         </is>
       </c>
       <c r="E5" s="10" t="inlineStr">
         <is>
-          <t>Claire Doh</t>
+          <t>Aaron duong</t>
         </is>
       </c>
       <c r="F5" s="9" t="inlineStr">
         <is>
-          <t>Chae Moon</t>
+          <t>Gabriel Ni</t>
         </is>
       </c>
       <c r="G5" s="11" t="inlineStr">
         <is>
-          <t>Jane Yoo</t>
+          <t>Grace Sowon Park</t>
         </is>
       </c>
       <c r="J5" s="14" t="inlineStr">
@@ -793,22 +793,22 @@
       </c>
       <c r="K5" s="11" t="inlineStr">
         <is>
-          <t>Jane Yoo</t>
+          <t>Grace Sowon Park</t>
         </is>
       </c>
       <c r="L5" s="1" t="inlineStr">
         <is>
-          <t>Daniel Kim</t>
+          <t>Daniel Kuo</t>
         </is>
       </c>
       <c r="N5" s="10" t="inlineStr">
         <is>
-          <t>Phillip Seo</t>
+          <t>Isabelle Li</t>
         </is>
       </c>
       <c r="O5" s="10" t="inlineStr">
         <is>
-          <t>Claire Doh</t>
+          <t>Sam Ko</t>
         </is>
       </c>
     </row>
@@ -820,19 +820,19 @@
       </c>
       <c r="D6" s="10" t="inlineStr">
         <is>
+          <t>Stella Son</t>
+        </is>
+      </c>
+      <c r="E6" s="10" t="inlineStr">
+        <is>
+          <t>Joanna Wei</t>
+        </is>
+      </c>
+      <c r="F6" s="10" t="inlineStr">
+        <is>
           <t>Cara Lee</t>
         </is>
       </c>
-      <c r="E6" s="10" t="inlineStr">
-        <is>
-          <t>Joanna Wei</t>
-        </is>
-      </c>
-      <c r="F6" s="10" t="inlineStr">
-        <is>
-          <t>Sam Ko</t>
-        </is>
-      </c>
       <c r="G6" s="11" t="inlineStr">
         <is>
           <t>Khang Le</t>
@@ -855,12 +855,12 @@
       </c>
       <c r="N6" s="10" t="inlineStr">
         <is>
-          <t>Isabelle Li</t>
+          <t>Phillip Seo</t>
         </is>
       </c>
       <c r="O6" s="10" t="inlineStr">
         <is>
-          <t>Sam Ko</t>
+          <t>Cara Lee</t>
         </is>
       </c>
     </row>
@@ -881,14 +881,14 @@
     <row r="9">
       <c r="C9" s="4" t="inlineStr">
         <is>
+          <t>Driver: Kaitlyn Kim</t>
+        </is>
+      </c>
+      <c r="D9" s="4" t="inlineStr">
+        <is>
           <t>Driver: Josh Paik</t>
         </is>
       </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>Driver: Kaitlyn Kim</t>
-        </is>
-      </c>
       <c r="E9" s="18" t="inlineStr">
         <is>
           <t>Driver: Aaron Long</t>
@@ -911,7 +911,7 @@
       </c>
       <c r="K9" s="20" t="inlineStr">
         <is>
-          <t>Driver: Manado 2nd Car</t>
+          <t>Driver: Claudia Parents</t>
         </is>
       </c>
       <c r="L9" s="20" t="inlineStr">
@@ -936,130 +936,130 @@
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="1" t="inlineStr">
+      <c r="C10" s="11" t="inlineStr">
+        <is>
+          <t>Karina Pan</t>
+        </is>
+      </c>
+      <c r="D10" s="1" t="inlineStr">
+        <is>
+          <t>Ben Kim</t>
+        </is>
+      </c>
+      <c r="E10" s="10" t="inlineStr">
+        <is>
+          <t>Claire Doh</t>
+        </is>
+      </c>
+      <c r="F10" s="9" t="inlineStr">
+        <is>
+          <t>Josh Yu</t>
+        </is>
+      </c>
+      <c r="G10" s="11" t="inlineStr">
+        <is>
+          <t>Rebecca Lu</t>
+        </is>
+      </c>
+      <c r="K10" s="11" t="inlineStr">
+        <is>
+          <t>Faith Chen</t>
+        </is>
+      </c>
+      <c r="L10" s="9" t="inlineStr">
+        <is>
+          <t>Susanna Tang</t>
+        </is>
+      </c>
+      <c r="M10" s="9" t="inlineStr">
+        <is>
+          <t>Chae Moon</t>
+        </is>
+      </c>
+      <c r="N10" s="9" t="inlineStr">
+        <is>
+          <t>Josh Yu</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="11" t="inlineStr">
+        <is>
+          <t>Faith Chen</t>
+        </is>
+      </c>
+      <c r="D11" s="1" t="inlineStr">
         <is>
           <t>Jay Jung</t>
         </is>
       </c>
-      <c r="D10" s="11" t="inlineStr">
-        <is>
-          <t>Faith Chen</t>
-        </is>
-      </c>
-      <c r="E10" s="10" t="inlineStr">
-        <is>
-          <t>Joann Jung</t>
-        </is>
-      </c>
-      <c r="F10" s="9" t="inlineStr">
-        <is>
-          <t>Josh Yu</t>
-        </is>
-      </c>
-      <c r="G10" s="11" t="inlineStr">
-        <is>
-          <t>Rebecca Lu</t>
-        </is>
-      </c>
-      <c r="K10" s="11" t="inlineStr">
-        <is>
-          <t>Faith Chen</t>
-        </is>
-      </c>
-      <c r="L10" s="9" t="inlineStr">
-        <is>
-          <t>Susanna Tang</t>
-        </is>
-      </c>
-      <c r="M10" s="9" t="inlineStr">
-        <is>
-          <t>Chae Moon</t>
-        </is>
-      </c>
-      <c r="N10" s="9" t="inlineStr">
-        <is>
-          <t>Josh Yu</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="1" t="inlineStr">
+      <c r="E11" s="10" t="inlineStr">
+        <is>
+          <t>Joel Shim</t>
+        </is>
+      </c>
+      <c r="K11" s="11" t="inlineStr">
+        <is>
+          <t>claudia lin</t>
+        </is>
+      </c>
+      <c r="M11" s="10" t="inlineStr">
+        <is>
+          <t>Irene Jung</t>
+        </is>
+      </c>
+      <c r="N11" s="9" t="inlineStr">
+        <is>
+          <t>Lindsey Ro</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="D12" s="1" t="inlineStr">
+        <is>
+          <t>Daniel Kim</t>
+        </is>
+      </c>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
+          <t>Sehyun Jung</t>
+        </is>
+      </c>
+      <c r="K12" s="10" t="inlineStr">
+        <is>
+          <t>Joel Shim</t>
+        </is>
+      </c>
+      <c r="M12" s="10" t="inlineStr">
+        <is>
+          <t>Stella Son</t>
+        </is>
+      </c>
+      <c r="N12" s="9" t="inlineStr">
+        <is>
+          <t>Christina Ko</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="D13" s="1" t="inlineStr">
         <is>
           <t>Daniel Kuo</t>
         </is>
       </c>
-      <c r="D11" s="11" t="inlineStr">
-        <is>
-          <t>Karina Pan</t>
-        </is>
-      </c>
-      <c r="E11" s="10" t="inlineStr">
+      <c r="E13" s="10" t="inlineStr">
+        <is>
+          <t>Irene Jung</t>
+        </is>
+      </c>
+      <c r="K13" s="10" t="inlineStr">
+        <is>
+          <t>Joanna Wei</t>
+        </is>
+      </c>
+      <c r="M13" s="10" t="inlineStr">
         <is>
           <t>Kyle Hwang</t>
-        </is>
-      </c>
-      <c r="K11" s="11" t="inlineStr">
-        <is>
-          <t>claudia lin</t>
-        </is>
-      </c>
-      <c r="M11" s="10" t="inlineStr">
-        <is>
-          <t>Kyle Hwang</t>
-        </is>
-      </c>
-      <c r="N11" s="9" t="inlineStr">
-        <is>
-          <t>Christina Ko</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="C12" s="1" t="inlineStr">
-        <is>
-          <t>Ben Kim</t>
-        </is>
-      </c>
-      <c r="E12" s="10" t="inlineStr">
-        <is>
-          <t>Sehyun Jung</t>
-        </is>
-      </c>
-      <c r="K12" s="10" t="inlineStr">
-        <is>
-          <t>Joel Shim</t>
-        </is>
-      </c>
-      <c r="M12" s="10" t="inlineStr">
-        <is>
-          <t>Irene Jung</t>
-        </is>
-      </c>
-      <c r="N12" s="9" t="inlineStr">
-        <is>
-          <t>Lindsey Ro</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="C13" s="1" t="inlineStr">
-        <is>
-          <t>Daniel Kim</t>
-        </is>
-      </c>
-      <c r="E13" s="10" t="inlineStr">
-        <is>
-          <t>Phillip Seo</t>
-        </is>
-      </c>
-      <c r="K13" s="10" t="inlineStr">
-        <is>
-          <t>Joanna Wei</t>
-        </is>
-      </c>
-      <c r="M13" s="10" t="inlineStr">
-        <is>
-          <t>Stella Son</t>
         </is>
       </c>
       <c r="N13" s="10" t="inlineStr">
@@ -1073,7 +1073,7 @@
     <row r="16">
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>Driver: Manado 2nd Car</t>
+          <t>Driver: Claudia Parents</t>
         </is>
       </c>
       <c r="E16" s="24" t="inlineStr">
@@ -1095,19 +1095,19 @@
     <row r="17">
       <c r="E17" s="9" t="inlineStr">
         <is>
-          <t>Zoe Li — No valid driver</t>
+          <t>Christina Ko — No valid driver</t>
         </is>
       </c>
       <c r="M17" s="9" t="inlineStr">
         <is>
-          <t>Zoe Li — No valid driver</t>
+          <t>Samuel Wen — No valid driver</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="E18" s="9" t="inlineStr">
         <is>
-          <t>Lindsey Ro — No valid driver</t>
+          <t>Jasmine Cheng — No valid driver</t>
         </is>
       </c>
       <c r="M18" s="9" t="inlineStr">
@@ -1119,31 +1119,31 @@
     <row r="19">
       <c r="E19" s="9" t="inlineStr">
         <is>
-          <t>Ariel Bahn — No valid driver</t>
+          <t>Susanna Tang — No valid driver</t>
         </is>
       </c>
       <c r="M19" s="9" t="inlineStr">
         <is>
-          <t>Samuel Wen — No valid driver</t>
+          <t>Eugene Seo — No valid driver</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="E20" s="9" t="inlineStr">
         <is>
-          <t>Susanna Tang — No valid driver</t>
+          <t>Eugene Seo — No valid driver</t>
         </is>
       </c>
       <c r="M20" s="11" t="inlineStr">
         <is>
-          <t>Jacob Lei — No valid driver</t>
+          <t>helena song🐟 — No valid driver</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="E21" s="11" t="inlineStr">
         <is>
-          <t>Jacob Lei — No valid driver</t>
+          <t>Josh Yang — No valid driver</t>
         </is>
       </c>
       <c r="M21" s="11" t="inlineStr">
@@ -1155,31 +1155,31 @@
     <row r="22">
       <c r="E22" s="11" t="inlineStr">
         <is>
-          <t>Darius Ajebon — No valid driver</t>
+          <t>helena song🐟 — No valid driver</t>
         </is>
       </c>
       <c r="M22" s="11" t="inlineStr">
         <is>
-          <t>helena song🐟 — No valid driver</t>
+          <t>Khang Le — No valid driver</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="E23" s="11" t="inlineStr">
         <is>
-          <t>Josh Yang — No valid driver</t>
+          <t>Darius Ajebon — No valid driver</t>
         </is>
       </c>
       <c r="M23" s="11" t="inlineStr">
         <is>
-          <t>Khang Le — No valid driver</t>
+          <t>Jacob Lei — No valid driver</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="E24" s="11" t="inlineStr">
         <is>
-          <t>helena song🐟 — No valid driver</t>
+          <t>Jacob Lei — No valid driver</t>
         </is>
       </c>
       <c r="M24" s="10" t="inlineStr">
